--- a/Hardware/GuitarPedal1590b-SMD/pcb/BOM_JLCSMT_DaisySeedGuitarPedal1590b-SMD.xlsx
+++ b/Hardware/GuitarPedal1590b-SMD/pcb/BOM_JLCSMT_DaisySeedGuitarPedal1590b-SMD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kshep/Dev/DaisySeedProjects/Hardware/GuitarPedal1590b-SMD/pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93CD19E-66FB-5B42-BEF2-8B3036A49533}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC4E07A-7FDF-BF4D-9C59-87C06F8A48CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8560" yWindow="760" windowWidth="16860" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -324,10 +324,10 @@
     <t>SOP-4-2.54mm</t>
   </si>
   <si>
-    <t>CPC1019N</t>
-  </si>
-  <si>
-    <t>C2760117</t>
+    <t>C133069</t>
+  </si>
+  <si>
+    <t>CPC1018N</t>
   </si>
 </sst>
 </file>
@@ -835,7 +835,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1"/>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>87</v>
@@ -1213,7 +1213,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
